--- a/a.xlsx
+++ b/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="12375"/>
+    <workbookView windowWidth="12255" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <t>计算机科学</t>
   </si>
   <si>
-    <t>计算机</t>
-  </si>
-  <si>
-    <t>华师</t>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>华中师范大学</t>
   </si>
   <si>
     <t>李四</t>
@@ -52,7 +52,7 @@
     <t>有机化学</t>
   </si>
   <si>
-    <t>化学</t>
+    <t>化学学院</t>
   </si>
   <si>
     <t>王五</t>
@@ -61,10 +61,10 @@
     <t>量子物理</t>
   </si>
   <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>武理</t>
+    <t>物理学院</t>
+  </si>
+  <si>
+    <t>武汉理工大学</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1006,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1033,7 +1036,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>2021211</v>
+        <v>2021218</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1053,7 +1056,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>2021212</v>
+        <v>2021219</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>2021213</v>
+        <v>20212110</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
